--- a/py/apps/web-scraper/AcloudGuru-aws-soultions-architect-associate.xlsx
+++ b/py/apps/web-scraper/AcloudGuru-aws-soultions-architect-associate.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivo.costa/Documents/Trainer/temp/Playground/py/apps/web-scraper/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D710C1-096C-8A43-806B-0292280DA667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -991,8 +997,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1055,6 +1061,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1101,7 +1115,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1133,9 +1147,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1167,6 +1199,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1342,14 +1392,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="93" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1413,7 +1466,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1445,7 +1498,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1477,7 +1530,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1509,7 +1562,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1541,7 +1594,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1573,7 +1626,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1605,7 +1658,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1637,7 +1690,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1669,7 +1722,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1701,7 +1754,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1733,7 +1786,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1765,7 +1818,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1797,7 +1850,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1829,7 +1882,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1861,7 +1914,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1893,7 +1946,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1925,7 +1978,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1957,7 +2010,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1989,7 +2042,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2021,7 +2074,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2053,7 +2106,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2085,7 +2138,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2117,7 +2170,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2149,7 +2202,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2181,7 +2234,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2213,7 +2266,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2245,7 +2298,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2277,7 +2330,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2309,7 +2362,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2341,7 +2394,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2373,7 +2426,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2405,7 +2458,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2437,7 +2490,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2469,7 +2522,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2501,7 +2554,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2533,7 +2586,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2565,7 +2618,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2597,7 +2650,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2629,7 +2682,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2661,7 +2714,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2693,7 +2746,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2725,7 +2778,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2757,7 +2810,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2789,7 +2842,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2821,7 +2874,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2853,7 +2906,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2885,7 +2938,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2917,7 +2970,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2949,7 +3002,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2981,7 +3034,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3013,7 +3066,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3045,7 +3098,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3077,7 +3130,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3109,7 +3162,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3141,7 +3194,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3173,7 +3226,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3205,7 +3258,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3237,7 +3290,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3269,7 +3322,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3301,7 +3354,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3333,7 +3386,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3365,7 +3418,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3397,7 +3450,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3429,7 +3482,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3461,7 +3514,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3493,7 +3546,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3525,7 +3578,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3557,7 +3610,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3589,7 +3642,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3621,7 +3674,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3653,7 +3706,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3685,7 +3738,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3717,7 +3770,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3749,7 +3802,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3781,7 +3834,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3813,7 +3866,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3845,7 +3898,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3877,7 +3930,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3909,7 +3962,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3941,7 +3994,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3973,7 +4026,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4005,7 +4058,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4037,7 +4090,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4069,7 +4122,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4101,7 +4154,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4133,7 +4186,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4165,7 +4218,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4197,7 +4250,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4229,7 +4282,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4261,7 +4314,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4293,7 +4346,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4325,7 +4378,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4357,7 +4410,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4389,7 +4442,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4421,7 +4474,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4453,7 +4506,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4485,7 +4538,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4517,7 +4570,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4549,7 +4602,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4581,7 +4634,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4613,7 +4666,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4645,7 +4698,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4677,7 +4730,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4709,7 +4762,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4741,7 +4794,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4773,7 +4826,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4805,7 +4858,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4837,7 +4890,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4869,7 +4922,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4901,7 +4954,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4933,7 +4986,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4965,7 +5018,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4997,7 +5050,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5029,7 +5082,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5061,7 +5114,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5093,7 +5146,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5125,7 +5178,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5157,7 +5210,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5189,7 +5242,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5221,7 +5274,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5253,7 +5306,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5285,7 +5338,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5317,7 +5370,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5349,7 +5402,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5381,7 +5434,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5413,7 +5466,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5445,7 +5498,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5477,7 +5530,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5509,7 +5562,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5541,7 +5594,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5573,7 +5626,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5605,7 +5658,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5637,7 +5690,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5669,7 +5722,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5701,7 +5754,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5733,7 +5786,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5765,7 +5818,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5797,7 +5850,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5829,7 +5882,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5861,7 +5914,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5893,7 +5946,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5925,7 +5978,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5957,7 +6010,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5989,7 +6042,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -6021,7 +6074,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6053,7 +6106,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -6085,7 +6138,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6117,7 +6170,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6149,7 +6202,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -6181,7 +6234,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6213,7 +6266,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -6245,7 +6298,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -6277,7 +6330,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -6309,7 +6362,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -6341,7 +6394,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -6373,7 +6426,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6405,7 +6458,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6437,7 +6490,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6469,7 +6522,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6501,7 +6554,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6533,7 +6586,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6565,7 +6618,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6597,7 +6650,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6629,7 +6682,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
